--- a/messungen/nvs_2 messungen.xlsx
+++ b/messungen/nvs_2 messungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D6BD0B-636B-42F8-AA09-EEBCD395DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4F1D6-FEC4-45B1-9E16-5F26A4034189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{15A31063-28D9-4ACE-A69A-8C3661F5B987}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
   <si>
     <t>1mb:</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>wlan</t>
+  </si>
+  <si>
+    <t>java-java</t>
+  </si>
+  <si>
+    <t>##############################################################################</t>
+  </si>
+  <si>
+    <t>c-c</t>
+  </si>
+  <si>
+    <t>c-java</t>
+  </si>
+  <si>
+    <t>java-c</t>
   </si>
 </sst>
 </file>
@@ -408,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9113C7E6-3AE5-430C-9D89-738B17108FCC}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,6 +466,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
@@ -558,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>1</v>
       </c>
@@ -566,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>2</v>
       </c>
@@ -574,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>3</v>
       </c>
@@ -582,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>4</v>
       </c>
@@ -590,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>5</v>
       </c>
@@ -598,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>6</v>
       </c>
@@ -606,7 +624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>7</v>
       </c>
@@ -614,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>8</v>
       </c>
@@ -622,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>9</v>
       </c>
@@ -630,11 +648,701 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>10</v>
       </c>
       <c r="K26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="K53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" t="s">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="K71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" t="s">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="K83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="K84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="K85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="K86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>3</v>
+      </c>
+      <c r="M92" t="s">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="K97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="K101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="K102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="K105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>3</v>
+      </c>
+      <c r="M106" t="s">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="K111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="K113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="K114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="K115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="K116">
         <v>10</v>
       </c>
     </row>

--- a/messungen/nvs_2 messungen.xlsx
+++ b/messungen/nvs_2 messungen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\UDP-packet-server\messungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4F1D6-FEC4-45B1-9E16-5F26A4034189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11785485-EC72-411C-AA20-FCE21E003E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{15A31063-28D9-4ACE-A69A-8C3661F5B987}"/>
   </bookViews>
@@ -78,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000\ &quot;MB/s&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -124,6 +128,1095 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>localhost 1mb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4320000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-140A-4F7C-84C4-2FAA5EF3E02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.879000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.204000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-140A-4F7C-84C4-2FAA5EF3E02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.406999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.451999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.629000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.629000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.451999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.451999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.451999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-140A-4F7C-84C4-2FAA5EF3E02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1745750400"/>
+        <c:axId val="1741411728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1745750400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1741411728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1741411728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000\ &quot;MB/s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745750400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>727083</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>721886</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155516</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A757ED5-A625-3366-E248-404807B2CD1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,11 +1518,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9113C7E6-3AE5-430C-9D89-738B17108FCC}">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -472,6 +1569,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" s="1">
+        <v>3.9580000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17.879000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30.5</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
@@ -480,6 +1586,15 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" s="1">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15.478</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30.5</v>
+      </c>
       <c r="K4">
         <v>2</v>
       </c>
@@ -487,6 +1602,15 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.165</v>
+      </c>
+      <c r="E5" s="1">
+        <v>19.565999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30.5</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -496,6 +1620,15 @@
       <c r="C6">
         <v>4</v>
       </c>
+      <c r="D6" s="1">
+        <v>4.1319999999999997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15.712</v>
+      </c>
+      <c r="F6" s="1">
+        <v>32.406999999999996</v>
+      </c>
       <c r="K6">
         <v>4</v>
       </c>
@@ -504,6 +1637,15 @@
       <c r="C7">
         <v>5</v>
       </c>
+      <c r="D7" s="1">
+        <v>4.0670000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19.204000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>33.451999999999998</v>
+      </c>
       <c r="K7">
         <v>5</v>
       </c>
@@ -512,6 +1654,15 @@
       <c r="C8">
         <v>6</v>
       </c>
+      <c r="D8" s="1">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>19.204000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>29.629000000000001</v>
+      </c>
       <c r="K8">
         <v>6</v>
       </c>
@@ -520,6 +1671,15 @@
       <c r="C9">
         <v>7</v>
       </c>
+      <c r="D9" s="1">
+        <v>4.1150000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18.855</v>
+      </c>
+      <c r="F9" s="1">
+        <v>29.629000000000001</v>
+      </c>
       <c r="K9">
         <v>7</v>
       </c>
@@ -528,6 +1688,15 @@
       <c r="C10">
         <v>8</v>
       </c>
+      <c r="D10" s="1">
+        <v>3.9430000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18.518000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>33.451999999999998</v>
+      </c>
       <c r="K10">
         <v>8</v>
       </c>
@@ -536,6 +1705,15 @@
       <c r="C11">
         <v>9</v>
       </c>
+      <c r="D11" s="1">
+        <v>3.1909999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19.204000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>33.451999999999998</v>
+      </c>
       <c r="K11">
         <v>9</v>
       </c>
@@ -544,6 +1722,15 @@
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="D12" s="1">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>19.204000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>33.451999999999998</v>
+      </c>
       <c r="K12">
         <v>10</v>
       </c>
@@ -580,6 +1767,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17" s="1">
+        <v>12.145</v>
+      </c>
+      <c r="E17" s="1">
+        <v>79.361999999999995</v>
+      </c>
+      <c r="F17" s="1">
+        <v>139.21799999999999</v>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
@@ -588,6 +1784,15 @@
       <c r="C18">
         <v>2</v>
       </c>
+      <c r="D18" s="1">
+        <v>12.016</v>
+      </c>
+      <c r="E18" s="1">
+        <v>78.316999999999993</v>
+      </c>
+      <c r="F18" s="1">
+        <v>139.03700000000001</v>
+      </c>
       <c r="K18">
         <v>2</v>
       </c>
@@ -595,6 +1800,15 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11.917999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>80.617000000000004</v>
+      </c>
+      <c r="F19" s="1">
+        <v>141.05199999999999</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -604,6 +1818,15 @@
       <c r="C20">
         <v>4</v>
       </c>
+      <c r="D20" s="1">
+        <v>11.949</v>
+      </c>
+      <c r="E20" s="1">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="F20" s="1">
+        <v>143.12700000000001</v>
+      </c>
       <c r="K20">
         <v>4</v>
       </c>
@@ -612,6 +1835,15 @@
       <c r="C21">
         <v>5</v>
       </c>
+      <c r="D21" s="1">
+        <v>11.795</v>
+      </c>
+      <c r="E21" s="1">
+        <v>75.287000000000006</v>
+      </c>
+      <c r="F21" s="1">
+        <v>137.608</v>
+      </c>
       <c r="K21">
         <v>5</v>
       </c>
@@ -620,6 +1852,15 @@
       <c r="C22">
         <v>6</v>
       </c>
+      <c r="D22" s="1">
+        <v>12.085000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>77.918000000000006</v>
+      </c>
+      <c r="F22" s="1">
+        <v>140.31299999999999</v>
+      </c>
       <c r="K22">
         <v>6</v>
       </c>
@@ -628,6 +1869,15 @@
       <c r="C23">
         <v>7</v>
       </c>
+      <c r="D23" s="1">
+        <v>12.238</v>
+      </c>
+      <c r="E23" s="1">
+        <v>74.191999999999993</v>
+      </c>
+      <c r="F23" s="1">
+        <v>129.298</v>
+      </c>
       <c r="K23">
         <v>7</v>
       </c>
@@ -636,6 +1886,15 @@
       <c r="C24">
         <v>8</v>
       </c>
+      <c r="D24" s="1">
+        <v>12.115</v>
+      </c>
+      <c r="E24" s="1">
+        <v>81.043999999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <v>134.66499999999999</v>
+      </c>
       <c r="K24">
         <v>8</v>
       </c>
@@ -644,6 +1903,15 @@
       <c r="C25">
         <v>9</v>
       </c>
+      <c r="D25" s="1">
+        <v>11.938000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>78.201999999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>138.67699999999999</v>
+      </c>
       <c r="K25">
         <v>9</v>
       </c>
@@ -652,6 +1920,15 @@
       <c r="C26">
         <v>10</v>
       </c>
+      <c r="D26" s="1">
+        <v>11.965999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="F26" s="1">
+        <v>129.768</v>
+      </c>
       <c r="K26">
         <v>10</v>
       </c>
@@ -1348,5 +2625,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/messungen/nvs_2 messungen.xlsx
+++ b/messungen/nvs_2 messungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\UDP-packet-server\messungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11785485-EC72-411C-AA20-FCE21E003E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFAC7E-4ADB-4BEF-9620-70D7C4365CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{15A31063-28D9-4ACE-A69A-8C3661F5B987}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t>1mb:</t>
   </si>
@@ -72,6 +72,168 @@
   </si>
   <si>
     <t>java-c</t>
+  </si>
+  <si>
+    <t>2.548 MB/s</t>
+  </si>
+  <si>
+    <t>2.336 MB/s</t>
+  </si>
+  <si>
+    <t>2.429 MB/s</t>
+  </si>
+  <si>
+    <t>2.245 MB/s</t>
+  </si>
+  <si>
+    <t>2.708 MB/s</t>
+  </si>
+  <si>
+    <t>2.701 MB/s</t>
+  </si>
+  <si>
+    <t>2.561 MB/s</t>
+  </si>
+  <si>
+    <t>2.505 MB/s</t>
+  </si>
+  <si>
+    <t>2.529 MB/s</t>
+  </si>
+  <si>
+    <t>2.434 MB/s</t>
+  </si>
+  <si>
+    <t>12.2 MB/s</t>
+  </si>
+  <si>
+    <t>10.167 MB/s</t>
+  </si>
+  <si>
+    <t>12.058 MB/s</t>
+  </si>
+  <si>
+    <t>11.522 MB/s</t>
+  </si>
+  <si>
+    <t>11.784 MB/s</t>
+  </si>
+  <si>
+    <t>12.345 MB/s</t>
+  </si>
+  <si>
+    <t>11.396 MB/s</t>
+  </si>
+  <si>
+    <t>11.652 MB/s</t>
+  </si>
+  <si>
+    <t>21.163 MB/s</t>
+  </si>
+  <si>
+    <t>23.045 MB/s</t>
+  </si>
+  <si>
+    <t>18.855 MB/s</t>
+  </si>
+  <si>
+    <t>24.691 MB/s</t>
+  </si>
+  <si>
+    <t>22.064 MB/s</t>
+  </si>
+  <si>
+    <t>21.604 MB/s</t>
+  </si>
+  <si>
+    <t>10.182 MB/s</t>
+  </si>
+  <si>
+    <t>9.359 MB/s</t>
+  </si>
+  <si>
+    <t>9.213 MB/s</t>
+  </si>
+  <si>
+    <t>9.164 MB/s</t>
+  </si>
+  <si>
+    <t>9.788 MB/s</t>
+  </si>
+  <si>
+    <t>9.3 MB/s</t>
+  </si>
+  <si>
+    <t>7.631 MB/s</t>
+  </si>
+  <si>
+    <t>9.959 MB/s</t>
+  </si>
+  <si>
+    <t>9.239 MB/s</t>
+  </si>
+  <si>
+    <t>9.479 MB/s</t>
+  </si>
+  <si>
+    <t>51.595 MB/s</t>
+  </si>
+  <si>
+    <t>51.273 MB/s</t>
+  </si>
+  <si>
+    <t>54.483 MB/s</t>
+  </si>
+  <si>
+    <t>55.731 MB/s</t>
+  </si>
+  <si>
+    <t>54.761 MB/s</t>
+  </si>
+  <si>
+    <t>54.07 MB/s</t>
+  </si>
+  <si>
+    <t>55.299 MB/s</t>
+  </si>
+  <si>
+    <t>52.275 MB/s</t>
+  </si>
+  <si>
+    <t>53.529 MB/s</t>
+  </si>
+  <si>
+    <t>49.564 MB/s</t>
+  </si>
+  <si>
+    <t>98.4 MB/s</t>
+  </si>
+  <si>
+    <t>102.547 MB/s</t>
+  </si>
+  <si>
+    <t>100.619 MB/s</t>
+  </si>
+  <si>
+    <t>109.021 MB/s</t>
+  </si>
+  <si>
+    <t>104.96 MB/s</t>
+  </si>
+  <si>
+    <t>101.767 MB/s</t>
+  </si>
+  <si>
+    <t>99.775 MB/s</t>
+  </si>
+  <si>
+    <t>107.166 MB/s</t>
+  </si>
+  <si>
+    <t>101.285 MB/s</t>
+  </si>
+  <si>
+    <t>99.037 MB/s</t>
   </si>
 </sst>
 </file>
@@ -1182,16 +1344,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>727083</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333383</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>145578</xdr:rowOff>
+      <xdr:rowOff>164628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>721886</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>328186</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>155516</xdr:rowOff>
+      <xdr:rowOff>174566</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1518,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9113C7E6-3AE5-430C-9D89-738B17108FCC}">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,6 +1743,15 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4">
@@ -1598,6 +1769,15 @@
       <c r="K4">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C5">
@@ -1614,6 +1794,15 @@
       </c>
       <c r="K5">
         <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1632,6 +1821,15 @@
       <c r="K6">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C7">
@@ -1649,6 +1847,15 @@
       <c r="K7">
         <v>5</v>
       </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C8">
@@ -1666,6 +1873,15 @@
       <c r="K8">
         <v>6</v>
       </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C9">
@@ -1683,6 +1899,15 @@
       <c r="K9">
         <v>7</v>
       </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C10">
@@ -1700,6 +1925,15 @@
       <c r="K10">
         <v>8</v>
       </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C11">
@@ -1717,6 +1951,15 @@
       <c r="K11">
         <v>9</v>
       </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C12">
@@ -1734,6 +1977,15 @@
       <c r="K12">
         <v>10</v>
       </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
@@ -1779,6 +2031,15 @@
       <c r="K17">
         <v>1</v>
       </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C18">
@@ -1796,6 +2057,15 @@
       <c r="K18">
         <v>2</v>
       </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C19">
@@ -1812,6 +2082,15 @@
       </c>
       <c r="K19">
         <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -1830,6 +2109,15 @@
       <c r="K20">
         <v>4</v>
       </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C21">
@@ -1847,6 +2135,15 @@
       <c r="K21">
         <v>5</v>
       </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C22">
@@ -1864,6 +2161,15 @@
       <c r="K22">
         <v>6</v>
       </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C23">
@@ -1881,6 +2187,15 @@
       <c r="K23">
         <v>7</v>
       </c>
+      <c r="L23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C24">
@@ -1898,6 +2213,15 @@
       <c r="K24">
         <v>8</v>
       </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C25">
@@ -1915,6 +2239,15 @@
       <c r="K25">
         <v>9</v>
       </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C26">
@@ -1931,6 +2264,15 @@
       </c>
       <c r="K26">
         <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">

--- a/messungen/nvs_2 messungen.xlsx
+++ b/messungen/nvs_2 messungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\UDP-packet-server\messungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFAC7E-4ADB-4BEF-9620-70D7C4365CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124781B-DC9B-481C-9C90-716FBDB84176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{15A31063-28D9-4ACE-A69A-8C3661F5B987}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
   <si>
     <t>1mb:</t>
   </si>
@@ -74,166 +74,10 @@
     <t>java-c</t>
   </si>
   <si>
-    <t>2.548 MB/s</t>
+    <t>Localhost 100mb</t>
   </si>
   <si>
-    <t>2.336 MB/s</t>
-  </si>
-  <si>
-    <t>2.429 MB/s</t>
-  </si>
-  <si>
-    <t>2.245 MB/s</t>
-  </si>
-  <si>
-    <t>2.708 MB/s</t>
-  </si>
-  <si>
-    <t>2.701 MB/s</t>
-  </si>
-  <si>
-    <t>2.561 MB/s</t>
-  </si>
-  <si>
-    <t>2.505 MB/s</t>
-  </si>
-  <si>
-    <t>2.529 MB/s</t>
-  </si>
-  <si>
-    <t>2.434 MB/s</t>
-  </si>
-  <si>
-    <t>12.2 MB/s</t>
-  </si>
-  <si>
-    <t>10.167 MB/s</t>
-  </si>
-  <si>
-    <t>12.058 MB/s</t>
-  </si>
-  <si>
-    <t>11.522 MB/s</t>
-  </si>
-  <si>
-    <t>11.784 MB/s</t>
-  </si>
-  <si>
-    <t>12.345 MB/s</t>
-  </si>
-  <si>
-    <t>11.396 MB/s</t>
-  </si>
-  <si>
-    <t>11.652 MB/s</t>
-  </si>
-  <si>
-    <t>21.163 MB/s</t>
-  </si>
-  <si>
-    <t>23.045 MB/s</t>
-  </si>
-  <si>
-    <t>18.855 MB/s</t>
-  </si>
-  <si>
-    <t>24.691 MB/s</t>
-  </si>
-  <si>
-    <t>22.064 MB/s</t>
-  </si>
-  <si>
-    <t>21.604 MB/s</t>
-  </si>
-  <si>
-    <t>10.182 MB/s</t>
-  </si>
-  <si>
-    <t>9.359 MB/s</t>
-  </si>
-  <si>
-    <t>9.213 MB/s</t>
-  </si>
-  <si>
-    <t>9.164 MB/s</t>
-  </si>
-  <si>
-    <t>9.788 MB/s</t>
-  </si>
-  <si>
-    <t>9.3 MB/s</t>
-  </si>
-  <si>
-    <t>7.631 MB/s</t>
-  </si>
-  <si>
-    <t>9.959 MB/s</t>
-  </si>
-  <si>
-    <t>9.239 MB/s</t>
-  </si>
-  <si>
-    <t>9.479 MB/s</t>
-  </si>
-  <si>
-    <t>51.595 MB/s</t>
-  </si>
-  <si>
-    <t>51.273 MB/s</t>
-  </si>
-  <si>
-    <t>54.483 MB/s</t>
-  </si>
-  <si>
-    <t>55.731 MB/s</t>
-  </si>
-  <si>
-    <t>54.761 MB/s</t>
-  </si>
-  <si>
-    <t>54.07 MB/s</t>
-  </si>
-  <si>
-    <t>55.299 MB/s</t>
-  </si>
-  <si>
-    <t>52.275 MB/s</t>
-  </si>
-  <si>
-    <t>53.529 MB/s</t>
-  </si>
-  <si>
-    <t>49.564 MB/s</t>
-  </si>
-  <si>
-    <t>98.4 MB/s</t>
-  </si>
-  <si>
-    <t>102.547 MB/s</t>
-  </si>
-  <si>
-    <t>100.619 MB/s</t>
-  </si>
-  <si>
-    <t>109.021 MB/s</t>
-  </si>
-  <si>
-    <t>104.96 MB/s</t>
-  </si>
-  <si>
-    <t>101.767 MB/s</t>
-  </si>
-  <si>
-    <t>99.775 MB/s</t>
-  </si>
-  <si>
-    <t>107.166 MB/s</t>
-  </si>
-  <si>
-    <t>101.285 MB/s</t>
-  </si>
-  <si>
-    <t>99.037 MB/s</t>
+    <t>Wlan 100mb</t>
   </si>
 </sst>
 </file>
@@ -327,7 +171,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>localhost 1mb</a:t>
+              <a:t>Localhost 1mb</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,7 +628,2068 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>WLAN 1mb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5609999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4F8-4127-A090-D51C1C25616B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.784000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.651999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.345000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4F8-4127-A090-D51C1C25616B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.690999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4F8-4127-A090-D51C1C25616B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="409511087"/>
+        <c:axId val="404049807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="409511087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404049807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404049807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000\ &quot;MB/s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409511087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Localhost 100mb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$17:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.938000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.965999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F15E-4503-A763-05EC6F8BE89D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$17:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>79.361999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.316999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.617000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.287000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.918000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.191999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.043999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.201999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.010000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F15E-4503-A763-05EC6F8BE89D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$17:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>139.21799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.03700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.05199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140.31299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.66499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.67699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129.768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F15E-4503-A763-05EC6F8BE89D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="430738095"/>
+        <c:axId val="234634383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="430738095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234634383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="234634383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000\ &quot;MB/s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430738095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>WLAN 100mb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$17:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2129999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2390000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4789999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E974-4016-BC7B-E72321910D2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$17:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.273000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.482999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.731000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.761000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.298999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.529000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E974-4016-BC7B-E72321910D2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$17:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.775000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.037000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E974-4016-BC7B-E72321910D2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="439114495"/>
+        <c:axId val="431191647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="439114495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431191647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431191647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000\ &quot;MB/s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439114495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Localhost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> vs. WLAN</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Y$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Localhost 100mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Y$18:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>139.21799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.03700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.05199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140.31299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.66499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.67699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129.768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBF1-416A-A970-8950680ADBC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Z$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wlan 100mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Z$18:$Z$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000\ "MB/s"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.775000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.037000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBF1-416A-A970-8950680ADBC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="495372719"/>
+        <c:axId val="431195007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="495372719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431195007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431195007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000\ &quot;MB/s&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495372719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1340,20 +3245,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333383</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352433</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>164628</xdr:rowOff>
+      <xdr:rowOff>107478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>328186</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>174566</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1373,6 +5342,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB431DE-0E83-2846-FA66-F394DB9AB7C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FD5ED7-CFD6-4B00-7612-2D5E7A7E5961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B54CB3-83CD-3AA7-319A-6EF6B2D1029F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A441FB24-251F-A558-5D2E-53FC8CC062C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1678,16 +5791,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9113C7E6-3AE5-430C-9D89-738B17108FCC}">
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -1743,14 +5859,14 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
+      <c r="L3" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>21.163</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1769,14 +5885,14 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
+      <c r="L4" s="1">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10.167</v>
+      </c>
+      <c r="N4" s="1">
+        <v>23.045000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1795,14 +5911,14 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
+      <c r="L5" s="1">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11.522</v>
+      </c>
+      <c r="N5" s="1">
+        <v>21.163</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1821,14 +5937,14 @@
       <c r="K6">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
+      <c r="L6" s="1">
+        <v>2.548</v>
+      </c>
+      <c r="M6" s="1">
+        <v>12.058</v>
+      </c>
+      <c r="N6" s="1">
+        <v>18.855</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1847,14 +5963,14 @@
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
+      <c r="L7" s="1">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>11.784000000000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>23.045000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1873,14 +5989,14 @@
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
+      <c r="L8" s="1">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>12.345000000000001</v>
+      </c>
+      <c r="N8" s="1">
+        <v>23.045000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1899,14 +6015,14 @@
       <c r="K9">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
+      <c r="L9" s="1">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>24.690999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1925,14 +6041,14 @@
       <c r="K10">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
+      <c r="L10" s="1">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>11.396000000000001</v>
+      </c>
+      <c r="N10" s="1">
+        <v>21.603999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1951,14 +6067,14 @@
       <c r="K11">
         <v>9</v>
       </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>34</v>
+      <c r="L11" s="1">
+        <v>2.7010000000000001</v>
+      </c>
+      <c r="M11" s="1">
+        <v>11.651999999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <v>22.064</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1977,14 +6093,14 @@
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" t="s">
-        <v>34</v>
+      <c r="L12" s="1">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>12.345000000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>22.064</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -2015,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>1</v>
       </c>
@@ -2031,17 +6147,23 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L17" s="1">
+        <v>10.182</v>
+      </c>
+      <c r="M17" s="1">
+        <v>51.594999999999999</v>
+      </c>
+      <c r="N17" s="1">
+        <v>98.4</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>2</v>
       </c>
@@ -2057,17 +6179,23 @@
       <c r="K18">
         <v>2</v>
       </c>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L18" s="1">
+        <v>9.359</v>
+      </c>
+      <c r="M18" s="1">
+        <v>51.273000000000003</v>
+      </c>
+      <c r="N18" s="1">
+        <v>102.547</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>139.21799999999999</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>3</v>
       </c>
@@ -2083,17 +6211,23 @@
       <c r="K19">
         <v>3</v>
       </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L19" s="1">
+        <v>9.2129999999999992</v>
+      </c>
+      <c r="M19" s="1">
+        <v>54.482999999999997</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100.619</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>139.03700000000001</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>102.547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>4</v>
       </c>
@@ -2109,17 +6243,23 @@
       <c r="K20">
         <v>4</v>
       </c>
-      <c r="L20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L20" s="1">
+        <v>9.1639999999999997</v>
+      </c>
+      <c r="M20" s="1">
+        <v>55.731000000000002</v>
+      </c>
+      <c r="N20" s="1">
+        <v>109.021</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>141.05199999999999</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>100.619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>5</v>
       </c>
@@ -2135,17 +6275,23 @@
       <c r="K21">
         <v>5</v>
       </c>
-      <c r="L21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L21" s="1">
+        <v>9.7880000000000003</v>
+      </c>
+      <c r="M21" s="1">
+        <v>54.761000000000003</v>
+      </c>
+      <c r="N21" s="1">
+        <v>104.96</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>143.12700000000001</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>109.021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>6</v>
       </c>
@@ -2161,17 +6307,23 @@
       <c r="K22">
         <v>6</v>
       </c>
-      <c r="L22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L22" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M22" s="1">
+        <v>54.07</v>
+      </c>
+      <c r="N22" s="1">
+        <v>101.767</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>137.608</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>104.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>7</v>
       </c>
@@ -2187,17 +6339,23 @@
       <c r="K23">
         <v>7</v>
       </c>
-      <c r="L23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L23" s="1">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="M23" s="1">
+        <v>55.298999999999999</v>
+      </c>
+      <c r="N23" s="1">
+        <v>99.775000000000006</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>140.31299999999999</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>101.767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>8</v>
       </c>
@@ -2213,17 +6371,23 @@
       <c r="K24">
         <v>8</v>
       </c>
-      <c r="L24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L24" s="1">
+        <v>9.9589999999999996</v>
+      </c>
+      <c r="M24" s="1">
+        <v>52.274999999999999</v>
+      </c>
+      <c r="N24" s="1">
+        <v>107.166</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>129.298</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>99.775000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>9</v>
       </c>
@@ -2239,17 +6403,23 @@
       <c r="K25">
         <v>9</v>
       </c>
-      <c r="L25" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L25" s="1">
+        <v>9.2390000000000008</v>
+      </c>
+      <c r="M25" s="1">
+        <v>53.529000000000003</v>
+      </c>
+      <c r="N25" s="1">
+        <v>99.037000000000006</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>134.66499999999999</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>107.166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>10</v>
       </c>
@@ -2265,22 +6435,36 @@
       <c r="K26">
         <v>10</v>
       </c>
-      <c r="L26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" t="s">
-        <v>55</v>
-      </c>
-      <c r="N26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L26" s="1">
+        <v>9.4789999999999992</v>
+      </c>
+      <c r="M26" s="1">
+        <v>49.564</v>
+      </c>
+      <c r="N26" s="1">
+        <v>101.285</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>138.67699999999999</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>99.037000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y27" s="1">
+        <v>129.768</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>101.285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2294,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>3</v>
       </c>
@@ -2314,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
